--- a/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,08</t>
+          <t>0,83; 3,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,28</t>
+          <t>2,01; 5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,17</t>
+          <t>1,54; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,7</t>
+          <t>2,16; 5,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,56</t>
+          <t>0,61; 3,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,17</t>
+          <t>1,27; 5,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,27</t>
+          <t>3,96; 9,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,56</t>
+          <t>1,23; 3,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,76</t>
+          <t>0,95; 2,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,91</t>
+          <t>1,97; 4,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,14</t>
+          <t>2,96; 6,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,11</t>
+          <t>2,05; 4,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,8</t>
+          <t>1,7; 5,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,67</t>
+          <t>2,45; 6,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,95</t>
+          <t>1,91; 5,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,59</t>
+          <t>1,12; 4,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,53</t>
+          <t>1,91; 5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,46</t>
+          <t>2,63; 7,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,65</t>
+          <t>2,63; 7,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,68</t>
+          <t>2,82; 6,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,9</t>
+          <t>2,18; 4,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,05</t>
+          <t>2,92; 6,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,7</t>
+          <t>2,78; 5,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,75</t>
+          <t>2,35; 4,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,63</t>
+          <t>1,67; 4,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,8</t>
+          <t>2,08; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,06</t>
+          <t>3,92; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,41</t>
+          <t>0,69; 4,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,79</t>
+          <t>2,49; 10,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,72</t>
+          <t>2,0; 7,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 21,49</t>
+          <t>9,59; 21,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,17</t>
+          <t>2,69; 7,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,25</t>
+          <t>2,36; 5,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,77</t>
+          <t>2,39; 4,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,98</t>
+          <t>5,76; 9,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,45</t>
+          <t>1,13; 4,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,3</t>
+          <t>2,23; 4,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,48</t>
+          <t>1,54; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,22</t>
+          <t>3,45; 6,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,26</t>
+          <t>2,22; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,89</t>
+          <t>3,05; 6,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,4</t>
+          <t>3,42; 6,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,13</t>
+          <t>7,25; 11,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 59,37</t>
+          <t>3,61; 59,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,64</t>
+          <t>2,76; 4,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,24</t>
+          <t>2,49; 4,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,71</t>
+          <t>5,49; 7,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 40,07</t>
+          <t>3,27; 38,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,73</t>
+          <t>1,68; 5,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,36</t>
+          <t>1,91; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,41</t>
+          <t>3,8; 7,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,01</t>
+          <t>3,23; 7,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,54</t>
+          <t>3,51; 7,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,16</t>
+          <t>4,6; 8,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,8; 19,13</t>
+          <t>13,93; 19,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,8</t>
+          <t>3,79; 6,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,13</t>
+          <t>3,18; 5,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,63</t>
+          <t>4,03; 6,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 13,07</t>
+          <t>9,63; 13,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,34</t>
+          <t>3,95; 6,25</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,85</t>
+          <t>0,64; 3,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,91</t>
+          <t>0,69; 3,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,31</t>
+          <t>1,7; 5,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,66</t>
+          <t>0,37; 5,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,69</t>
+          <t>4,16; 6,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,51</t>
+          <t>3,86; 6,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,3</t>
+          <t>10,17; 14,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,97</t>
+          <t>4,12; 6,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,89</t>
+          <t>3,73; 5,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,64</t>
+          <t>3,24; 5,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 12,24</t>
+          <t>8,89; 12,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,76</t>
+          <t>3,51; 6,01</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,41</t>
+          <t>2,24; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,66</t>
+          <t>2,43; 3,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,3</t>
+          <t>3,87; 5,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,78</t>
+          <t>2,2; 3,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,39</t>
+          <t>3,89; 5,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,72</t>
+          <t>4,17; 5,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,12</t>
+          <t>9,93; 12,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 28,52</t>
+          <t>4,26; 26,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,16</t>
+          <t>3,28; 4,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 4,46</t>
+          <t>3,52; 4,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,54</t>
+          <t>7,19; 8,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 17,63</t>
+          <t>3,61; 15,77</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con problemas de nervios, depresión o trastorno mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15662</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12929</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17949</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8513</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21346</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9597</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12999</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24175</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34275</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27545</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3921; 15179</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8767; 25963</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6609; 22175</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10919; 28615</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1872; 10700</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3999; 17039</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13745; 33516</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5497; 15180</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7433; 22098</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14795; 36927</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22965; 47346</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19569; 40314</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12427</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17183</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11064</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16169</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17259</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25069</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32678</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29655</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28323</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6246; 20436</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10280; 28638</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7215; 21348</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5056; 19605</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7102; 21437</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8877; 25829</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9779; 26970</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10772; 26279</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16140; 35709</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22119; 46692</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20803; 42666</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19614; 40399</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16023</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20621</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29676</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15619</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9143</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10241</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23742</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7721</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25166</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30862</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53418</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23340</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9037; 25512</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13123; 29874</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20466; 42331</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4621; 28192</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4180; 18400</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5199; 19045</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15939; 34916</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4483; 12485</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16779; 36189</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21274; 41815</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39647; 68150</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9457; 37607</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38505</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27164</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53795</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32045</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31624</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36441</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74917</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>236496</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70129</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63606</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>128712</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>268541</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27557; 53221</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17802; 39032</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39609; 69160</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22938; 44621</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21751; 44721</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26222; 52022</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59854; 93764</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35358; 584428</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53809; 88660</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48042; 82638</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>108382; 151068</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>65870; 773350</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11207</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17827</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33097</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23185</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29769</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48396</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>120923</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44692</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40977</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>66223</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>154021</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67877</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5884; 19218</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9767; 27863</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23585; 45472</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15364; 34185</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19939; 41771</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35046; 62390</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>102816; 144292</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31862; 57215</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29201; 53804</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>51309; 85427</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>130849; 180007</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52021; 82262</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4719</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4750</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10189</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>66814</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>55507</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>132458</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40815</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71533</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>60257</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>142647</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>44975</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1896; 10498</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1844; 10510</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4873; 16930</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>878; 13752</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51989; 83675</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42803; 72853</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>110032; 155947</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31339; 52133</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>57657; 92405</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>44524; 77634</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>121715; 169101</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35152; 60170</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>103208</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>153173</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>104022</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>154955</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>174593</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>389556</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>356581</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>245873</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>277800</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>542729</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>460602</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>73327; 110840</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>83081; 123433</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>131101; 179647</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>74365; 126262</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>131451; 178691</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>147891; 201311</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>350571; 427854</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>152346; 963300</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>218364; 279809</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>245531; 311322</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>497514; 590193</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>251185; 1096573</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
